--- a/result.xlsx
+++ b/result.xlsx
@@ -136,7 +136,7 @@
       <bottom/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right style="thick"/>
       <top style="thick"/>
       <bottom style="thin"/>
@@ -11475,7 +11475,9 @@
       <c r="DM4" s="16" t="n"/>
       <c r="DN4" s="15" t="n"/>
       <c r="DO4" s="15" t="n"/>
-      <c r="DP4" s="15" t="n"/>
+      <c r="DP4" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="DQ4" s="15" t="n"/>
       <c r="DR4" s="16" t="n"/>
       <c r="DS4" s="15" t="n"/>
@@ -11617,7 +11619,9 @@
       <c r="DM5" s="16" t="n"/>
       <c r="DN5" s="15" t="n"/>
       <c r="DO5" s="15" t="n"/>
-      <c r="DP5" s="15" t="n"/>
+      <c r="DP5" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ5" s="15" t="n"/>
       <c r="DR5" s="16" t="n"/>
       <c r="DS5" s="15" t="n"/>
@@ -11799,7 +11803,9 @@
       <c r="DM6" s="16" t="n"/>
       <c r="DN6" s="15" t="n"/>
       <c r="DO6" s="15" t="n"/>
-      <c r="DP6" s="15" t="n"/>
+      <c r="DP6" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ6" s="15" t="n"/>
       <c r="DR6" s="16" t="n"/>
       <c r="DS6" s="15" t="n"/>
@@ -11961,7 +11967,9 @@
       <c r="DM7" s="16" t="n"/>
       <c r="DN7" s="15" t="n"/>
       <c r="DO7" s="15" t="n"/>
-      <c r="DP7" s="15" t="n"/>
+      <c r="DP7" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ7" s="15" t="n"/>
       <c r="DR7" s="16" t="n"/>
       <c r="DS7" s="15" t="n"/>
@@ -12121,7 +12129,9 @@
       <c r="DM8" s="16" t="n"/>
       <c r="DN8" s="15" t="n"/>
       <c r="DO8" s="15" t="n"/>
-      <c r="DP8" s="15" t="n"/>
+      <c r="DP8" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="DQ8" s="15" t="n"/>
       <c r="DR8" s="16" t="n"/>
       <c r="DS8" s="15" t="n"/>
@@ -12291,7 +12301,9 @@
       <c r="DM9" s="16" t="n"/>
       <c r="DN9" s="15" t="n"/>
       <c r="DO9" s="15" t="n"/>
-      <c r="DP9" s="15" t="n"/>
+      <c r="DP9" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="DQ9" s="15" t="n"/>
       <c r="DR9" s="16" t="n"/>
       <c r="DS9" s="15" t="n"/>
@@ -12457,7 +12469,9 @@
       <c r="DM10" s="16" t="n"/>
       <c r="DN10" s="15" t="n"/>
       <c r="DO10" s="15" t="n"/>
-      <c r="DP10" s="15" t="n"/>
+      <c r="DP10" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ10" s="15" t="n"/>
       <c r="DR10" s="16" t="n"/>
       <c r="DS10" s="15" t="n"/>
@@ -12609,7 +12623,9 @@
       <c r="DM11" s="16" t="n"/>
       <c r="DN11" s="15" t="n"/>
       <c r="DO11" s="15" t="n"/>
-      <c r="DP11" s="15" t="n"/>
+      <c r="DP11" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ11" s="15" t="n"/>
       <c r="DR11" s="16" t="n"/>
       <c r="DS11" s="15" t="n"/>
@@ -12783,7 +12799,9 @@
       <c r="DM12" s="16" t="n"/>
       <c r="DN12" s="15" t="n"/>
       <c r="DO12" s="15" t="n"/>
-      <c r="DP12" s="15" t="n"/>
+      <c r="DP12" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="DQ12" s="15" t="n"/>
       <c r="DR12" s="16" t="n"/>
       <c r="DS12" s="15" t="n"/>
@@ -12967,7 +12985,9 @@
       <c r="DM13" s="16" t="n"/>
       <c r="DN13" s="15" t="n"/>
       <c r="DO13" s="15" t="n"/>
-      <c r="DP13" s="15" t="n"/>
+      <c r="DP13" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ13" s="15" t="n"/>
       <c r="DR13" s="16" t="n"/>
       <c r="DS13" s="15" t="n"/>
@@ -13113,7 +13133,9 @@
       <c r="DM14" s="16" t="n"/>
       <c r="DN14" s="15" t="n"/>
       <c r="DO14" s="15" t="n"/>
-      <c r="DP14" s="15" t="n"/>
+      <c r="DP14" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ14" s="15" t="n"/>
       <c r="DR14" s="16" t="n"/>
       <c r="DS14" s="15" t="n"/>
@@ -13309,7 +13331,9 @@
       <c r="DM15" s="16" t="n"/>
       <c r="DN15" s="15" t="n"/>
       <c r="DO15" s="15" t="n"/>
-      <c r="DP15" s="15" t="n"/>
+      <c r="DP15" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="DQ15" s="15" t="n"/>
       <c r="DR15" s="16" t="n"/>
       <c r="DS15" s="15" t="n"/>
@@ -13461,7 +13485,9 @@
       <c r="DM16" s="16" t="n"/>
       <c r="DN16" s="15" t="n"/>
       <c r="DO16" s="15" t="n"/>
-      <c r="DP16" s="15" t="n"/>
+      <c r="DP16" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ16" s="15" t="n"/>
       <c r="DR16" s="16" t="n"/>
       <c r="DS16" s="15" t="n"/>
@@ -13605,7 +13631,9 @@
       <c r="DM17" s="16" t="n"/>
       <c r="DN17" s="15" t="n"/>
       <c r="DO17" s="15" t="n"/>
-      <c r="DP17" s="15" t="n"/>
+      <c r="DP17" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ17" s="15" t="n"/>
       <c r="DR17" s="16" t="n"/>
       <c r="DS17" s="15" t="n"/>
@@ -13777,7 +13805,9 @@
       <c r="DM18" s="16" t="n"/>
       <c r="DN18" s="15" t="n"/>
       <c r="DO18" s="15" t="n"/>
-      <c r="DP18" s="15" t="n"/>
+      <c r="DP18" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ18" s="15" t="n"/>
       <c r="DR18" s="16" t="n"/>
       <c r="DS18" s="15" t="n"/>
@@ -13921,7 +13951,9 @@
       <c r="DM19" s="16" t="n"/>
       <c r="DN19" s="15" t="n"/>
       <c r="DO19" s="15" t="n"/>
-      <c r="DP19" s="15" t="n"/>
+      <c r="DP19" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ19" s="15" t="n"/>
       <c r="DR19" s="16" t="n"/>
       <c r="DS19" s="15" t="n"/>
@@ -14089,7 +14121,9 @@
       <c r="DM20" s="16" t="n"/>
       <c r="DN20" s="15" t="n"/>
       <c r="DO20" s="15" t="n"/>
-      <c r="DP20" s="15" t="n"/>
+      <c r="DP20" s="15" t="n">
+        <v>3</v>
+      </c>
       <c r="DQ20" s="15" t="n"/>
       <c r="DR20" s="16" t="n"/>
       <c r="DS20" s="15" t="n"/>
@@ -14255,7 +14289,9 @@
       <c r="DM21" s="16" t="n"/>
       <c r="DN21" s="15" t="n"/>
       <c r="DO21" s="15" t="n"/>
-      <c r="DP21" s="15" t="n"/>
+      <c r="DP21" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="DQ21" s="15" t="n"/>
       <c r="DR21" s="16" t="n"/>
       <c r="DS21" s="15" t="n"/>
@@ -17787,12 +17823,12 @@
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="45.6" customWidth="1" min="2" max="2"/>
     <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="16.8" customWidth="1" min="4" max="4"/>
-    <col width="14.4" customWidth="1" min="5" max="5"/>
-    <col width="13.2" customWidth="1" min="6" max="6"/>
+    <col width="13.2" customWidth="1" min="4" max="4"/>
+    <col width="21.6" customWidth="1" min="5" max="5"/>
+    <col width="14.4" customWidth="1" min="6" max="6"/>
     <col width="21.6" customWidth="1" min="7" max="7"/>
-    <col width="21.6" customWidth="1" min="8" max="8"/>
-    <col width="33.6" customWidth="1" min="9" max="9"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="66" customWidth="1" min="9" max="9"/>
     <col width="24" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
@@ -17884,32 +17920,32 @@
       <c r="B4" s="34" t="n"/>
       <c r="C4" s="37" t="inlineStr">
         <is>
+          <t>Технология разработки программного обеспечения</t>
+        </is>
+      </c>
+      <c r="D4" s="37" t="inlineStr">
+        <is>
+          <t>Основы философии</t>
+        </is>
+      </c>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>Инструментальные средства разработки программного обеспечения</t>
+        </is>
+      </c>
+      <c r="F4" s="37" t="inlineStr">
+        <is>
+          <t>Технология разработки и защиты баз данных</t>
+        </is>
+      </c>
+      <c r="G4" s="37" t="inlineStr">
+        <is>
+          <t>Документирование и сертификация</t>
+        </is>
+      </c>
+      <c r="H4" s="37" t="inlineStr">
+        <is>
           <t>Иностранный язык</t>
-        </is>
-      </c>
-      <c r="D4" s="37" t="inlineStr">
-        <is>
-          <t>Технология разработки программного обеспечения</t>
-        </is>
-      </c>
-      <c r="E4" s="37" t="inlineStr">
-        <is>
-          <t>Технология разработки и защиты баз данных</t>
-        </is>
-      </c>
-      <c r="F4" s="37" t="inlineStr">
-        <is>
-          <t>Основы философии</t>
-        </is>
-      </c>
-      <c r="G4" s="37" t="inlineStr">
-        <is>
-          <t>Инструментальные средства разработки программного обеспечения</t>
-        </is>
-      </c>
-      <c r="H4" s="37" t="inlineStr">
-        <is>
-          <t>Документирование и сертификация</t>
         </is>
       </c>
       <c r="I4" s="38" t="n"/>
@@ -17937,31 +17973,31 @@
         </is>
       </c>
       <c r="C5" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D5" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E5" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F5" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G5" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H5" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C4:EB4,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I5" s="42">
-        <f>ROUND(AVERAGE(C5:H5),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C5:H5,"&lt;&gt;",C5:H5),2),"")</f>
         <v/>
       </c>
       <c r="J5" s="42">
@@ -17969,11 +18005,11 @@
         <v/>
       </c>
       <c r="K5" s="43">
-        <f>IF(COUNTIF(C5:H5,2),0,1)</f>
+        <f>IF(COUNTIF(C5:H5,2)+ COUNTIF(C5:H5,""),0,1)</f>
         <v/>
       </c>
       <c r="L5" s="43">
-        <f>IF(COUNTIF(C5:H5,2) + COUNTIF(C5:H5,3),0,1)</f>
+        <f>IF(COUNTIF(C5:H5,2) + COUNTIF(C5:H5,3)+ COUNTIF(C5:H5,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -17989,31 +18025,31 @@
         </is>
       </c>
       <c r="C6" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D6" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F6" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G6" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H6" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C5:EB5,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I6" s="42">
-        <f>ROUND(AVERAGE(C6:H6),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C6:H6,"&lt;&gt;",C6:H6),2),"")</f>
         <v/>
       </c>
       <c r="J6" s="42">
@@ -18021,11 +18057,11 @@
         <v/>
       </c>
       <c r="K6" s="43">
-        <f>IF(COUNTIF(C6:H6,2),0,1)</f>
+        <f>IF(COUNTIF(C6:H6,2)+ COUNTIF(C6:H6,""),0,1)</f>
         <v/>
       </c>
       <c r="L6" s="43">
-        <f>IF(COUNTIF(C6:H6,2) + COUNTIF(C6:H6,3),0,1)</f>
+        <f>IF(COUNTIF(C6:H6,2) + COUNTIF(C6:H6,3)+ COUNTIF(C6:H6,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18041,31 +18077,31 @@
         </is>
       </c>
       <c r="C7" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D7" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E7" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F7" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G7" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H7" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C6:EB6,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I7" s="42">
-        <f>ROUND(AVERAGE(C7:H7),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C7:H7,"&lt;&gt;",C7:H7),2),"")</f>
         <v/>
       </c>
       <c r="J7" s="42">
@@ -18073,11 +18109,11 @@
         <v/>
       </c>
       <c r="K7" s="43">
-        <f>IF(COUNTIF(C7:H7,2),0,1)</f>
+        <f>IF(COUNTIF(C7:H7,2)+ COUNTIF(C7:H7,""),0,1)</f>
         <v/>
       </c>
       <c r="L7" s="43">
-        <f>IF(COUNTIF(C7:H7,2) + COUNTIF(C7:H7,3),0,1)</f>
+        <f>IF(COUNTIF(C7:H7,2) + COUNTIF(C7:H7,3)+ COUNTIF(C7:H7,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18093,31 +18129,31 @@
         </is>
       </c>
       <c r="C8" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D8" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E8" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F8" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G8" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H8" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C7:EB7,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I8" s="42">
-        <f>ROUND(AVERAGE(C8:H8),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C8:H8,"&lt;&gt;",C8:H8),2),"")</f>
         <v/>
       </c>
       <c r="J8" s="42">
@@ -18125,11 +18161,11 @@
         <v/>
       </c>
       <c r="K8" s="43">
-        <f>IF(COUNTIF(C8:H8,2),0,1)</f>
+        <f>IF(COUNTIF(C8:H8,2)+ COUNTIF(C8:H8,""),0,1)</f>
         <v/>
       </c>
       <c r="L8" s="43">
-        <f>IF(COUNTIF(C8:H8,2) + COUNTIF(C8:H8,3),0,1)</f>
+        <f>IF(COUNTIF(C8:H8,2) + COUNTIF(C8:H8,3)+ COUNTIF(C8:H8,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18145,31 +18181,31 @@
         </is>
       </c>
       <c r="C9" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D9" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E9" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F9" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G9" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H9" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C8:EB8,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I9" s="42">
-        <f>ROUND(AVERAGE(C9:H9),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C9:H9,"&lt;&gt;",C9:H9),2),"")</f>
         <v/>
       </c>
       <c r="J9" s="42">
@@ -18177,11 +18213,11 @@
         <v/>
       </c>
       <c r="K9" s="43">
-        <f>IF(COUNTIF(C9:H9,2),0,1)</f>
+        <f>IF(COUNTIF(C9:H9,2)+ COUNTIF(C9:H9,""),0,1)</f>
         <v/>
       </c>
       <c r="L9" s="43">
-        <f>IF(COUNTIF(C9:H9,2) + COUNTIF(C9:H9,3),0,1)</f>
+        <f>IF(COUNTIF(C9:H9,2) + COUNTIF(C9:H9,3)+ COUNTIF(C9:H9,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18197,31 +18233,31 @@
         </is>
       </c>
       <c r="C10" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D10" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E10" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F10" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G10" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H10" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C9:EB9,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I10" s="42">
-        <f>ROUND(AVERAGE(C10:H10),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C10:H10,"&lt;&gt;",C10:H10),2),"")</f>
         <v/>
       </c>
       <c r="J10" s="42">
@@ -18229,11 +18265,11 @@
         <v/>
       </c>
       <c r="K10" s="43">
-        <f>IF(COUNTIF(C10:H10,2),0,1)</f>
+        <f>IF(COUNTIF(C10:H10,2)+ COUNTIF(C10:H10,""),0,1)</f>
         <v/>
       </c>
       <c r="L10" s="43">
-        <f>IF(COUNTIF(C10:H10,2) + COUNTIF(C10:H10,3),0,1)</f>
+        <f>IF(COUNTIF(C10:H10,2) + COUNTIF(C10:H10,3)+ COUNTIF(C10:H10,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18249,31 +18285,31 @@
         </is>
       </c>
       <c r="C11" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D11" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E11" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F11" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G11" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H11" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C10:EB10,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I11" s="42">
-        <f>ROUND(AVERAGE(C11:H11),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C11:H11,"&lt;&gt;",C11:H11),2),"")</f>
         <v/>
       </c>
       <c r="J11" s="42">
@@ -18281,11 +18317,11 @@
         <v/>
       </c>
       <c r="K11" s="43">
-        <f>IF(COUNTIF(C11:H11,2),0,1)</f>
+        <f>IF(COUNTIF(C11:H11,2)+ COUNTIF(C11:H11,""),0,1)</f>
         <v/>
       </c>
       <c r="L11" s="43">
-        <f>IF(COUNTIF(C11:H11,2) + COUNTIF(C11:H11,3),0,1)</f>
+        <f>IF(COUNTIF(C11:H11,2) + COUNTIF(C11:H11,3)+ COUNTIF(C11:H11,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18301,31 +18337,31 @@
         </is>
       </c>
       <c r="C12" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D12" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E12" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F12" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G12" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H12" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C11:EB11,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I12" s="42">
-        <f>ROUND(AVERAGE(C12:H12),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C12:H12,"&lt;&gt;",C12:H12),2),"")</f>
         <v/>
       </c>
       <c r="J12" s="42">
@@ -18333,11 +18369,11 @@
         <v/>
       </c>
       <c r="K12" s="43">
-        <f>IF(COUNTIF(C12:H12,2),0,1)</f>
+        <f>IF(COUNTIF(C12:H12,2)+ COUNTIF(C12:H12,""),0,1)</f>
         <v/>
       </c>
       <c r="L12" s="43">
-        <f>IF(COUNTIF(C12:H12,2) + COUNTIF(C12:H12,3),0,1)</f>
+        <f>IF(COUNTIF(C12:H12,2) + COUNTIF(C12:H12,3)+ COUNTIF(C12:H12,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18353,31 +18389,31 @@
         </is>
       </c>
       <c r="C13" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D13" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F13" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G13" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H13" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C12:EB12,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I13" s="42">
-        <f>ROUND(AVERAGE(C13:H13),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C13:H13,"&lt;&gt;",C13:H13),2),"")</f>
         <v/>
       </c>
       <c r="J13" s="42">
@@ -18385,11 +18421,11 @@
         <v/>
       </c>
       <c r="K13" s="43">
-        <f>IF(COUNTIF(C13:H13,2),0,1)</f>
+        <f>IF(COUNTIF(C13:H13,2)+ COUNTIF(C13:H13,""),0,1)</f>
         <v/>
       </c>
       <c r="L13" s="43">
-        <f>IF(COUNTIF(C13:H13,2) + COUNTIF(C13:H13,3),0,1)</f>
+        <f>IF(COUNTIF(C13:H13,2) + COUNTIF(C13:H13,3)+ COUNTIF(C13:H13,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18405,31 +18441,31 @@
         </is>
       </c>
       <c r="C14" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D14" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F14" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C13:EB13,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I14" s="42">
-        <f>ROUND(AVERAGE(C14:H14),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C14:H14,"&lt;&gt;",C14:H14),2),"")</f>
         <v/>
       </c>
       <c r="J14" s="42">
@@ -18437,11 +18473,11 @@
         <v/>
       </c>
       <c r="K14" s="43">
-        <f>IF(COUNTIF(C14:H14,2),0,1)</f>
+        <f>IF(COUNTIF(C14:H14,2)+ COUNTIF(C14:H14,""),0,1)</f>
         <v/>
       </c>
       <c r="L14" s="43">
-        <f>IF(COUNTIF(C14:H14,2) + COUNTIF(C14:H14,3),0,1)</f>
+        <f>IF(COUNTIF(C14:H14,2) + COUNTIF(C14:H14,3)+ COUNTIF(C14:H14,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18457,31 +18493,31 @@
         </is>
       </c>
       <c r="C15" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D15" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F15" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G15" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H15" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C14:EB14,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I15" s="42">
-        <f>ROUND(AVERAGE(C15:H15),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C15:H15,"&lt;&gt;",C15:H15),2),"")</f>
         <v/>
       </c>
       <c r="J15" s="42">
@@ -18489,11 +18525,11 @@
         <v/>
       </c>
       <c r="K15" s="43">
-        <f>IF(COUNTIF(C15:H15,2),0,1)</f>
+        <f>IF(COUNTIF(C15:H15,2)+ COUNTIF(C15:H15,""),0,1)</f>
         <v/>
       </c>
       <c r="L15" s="43">
-        <f>IF(COUNTIF(C15:H15,2) + COUNTIF(C15:H15,3),0,1)</f>
+        <f>IF(COUNTIF(C15:H15,2) + COUNTIF(C15:H15,3)+ COUNTIF(C15:H15,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18509,31 +18545,31 @@
         </is>
       </c>
       <c r="C16" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D16" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F16" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G16" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H16" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C15:EB15,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I16" s="42">
-        <f>ROUND(AVERAGE(C16:H16),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C16:H16,"&lt;&gt;",C16:H16),2),"")</f>
         <v/>
       </c>
       <c r="J16" s="42">
@@ -18541,11 +18577,11 @@
         <v/>
       </c>
       <c r="K16" s="43">
-        <f>IF(COUNTIF(C16:H16,2),0,1)</f>
+        <f>IF(COUNTIF(C16:H16,2)+ COUNTIF(C16:H16,""),0,1)</f>
         <v/>
       </c>
       <c r="L16" s="43">
-        <f>IF(COUNTIF(C16:H16,2) + COUNTIF(C16:H16,3),0,1)</f>
+        <f>IF(COUNTIF(C16:H16,2) + COUNTIF(C16:H16,3)+ COUNTIF(C16:H16,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18561,31 +18597,31 @@
         </is>
       </c>
       <c r="C17" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D17" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E17" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F17" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G17" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H17" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C16:EB16,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I17" s="42">
-        <f>ROUND(AVERAGE(C17:H17),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C17:H17,"&lt;&gt;",C17:H17),2),"")</f>
         <v/>
       </c>
       <c r="J17" s="42">
@@ -18593,11 +18629,11 @@
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(COUNTIF(C17:H17,2),0,1)</f>
+        <f>IF(COUNTIF(C17:H17,2)+ COUNTIF(C17:H17,""),0,1)</f>
         <v/>
       </c>
       <c r="L17" s="43">
-        <f>IF(COUNTIF(C17:H17,2) + COUNTIF(C17:H17,3),0,1)</f>
+        <f>IF(COUNTIF(C17:H17,2) + COUNTIF(C17:H17,3)+ COUNTIF(C17:H17,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18613,31 +18649,31 @@
         </is>
       </c>
       <c r="C18" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D18" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E18" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F18" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G18" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H18" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C17:EB17,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I18" s="42">
-        <f>ROUND(AVERAGE(C18:H18),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C18:H18,"&lt;&gt;",C18:H18),2),"")</f>
         <v/>
       </c>
       <c r="J18" s="42">
@@ -18645,11 +18681,11 @@
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(COUNTIF(C18:H18,2),0,1)</f>
+        <f>IF(COUNTIF(C18:H18,2)+ COUNTIF(C18:H18,""),0,1)</f>
         <v/>
       </c>
       <c r="L18" s="43">
-        <f>IF(COUNTIF(C18:H18,2) + COUNTIF(C18:H18,3),0,1)</f>
+        <f>IF(COUNTIF(C18:H18,2) + COUNTIF(C18:H18,3)+ COUNTIF(C18:H18,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18665,31 +18701,31 @@
         </is>
       </c>
       <c r="C19" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D19" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E19" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F19" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G19" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H19" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C18:EB18,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I19" s="42">
-        <f>ROUND(AVERAGE(C19:H19),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C19:H19,"&lt;&gt;",C19:H19),2),"")</f>
         <v/>
       </c>
       <c r="J19" s="42">
@@ -18697,11 +18733,11 @@
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(COUNTIF(C19:H19,2),0,1)</f>
+        <f>IF(COUNTIF(C19:H19,2)+ COUNTIF(C19:H19,""),0,1)</f>
         <v/>
       </c>
       <c r="L19" s="43">
-        <f>IF(COUNTIF(C19:H19,2) + COUNTIF(C19:H19,3),0,1)</f>
+        <f>IF(COUNTIF(C19:H19,2) + COUNTIF(C19:H19,3)+ COUNTIF(C19:H19,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18717,31 +18753,31 @@
         </is>
       </c>
       <c r="C20" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D20" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E20" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F20" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G20" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H20" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C19:EB19,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I20" s="42">
-        <f>ROUND(AVERAGE(C20:H20),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C20:H20,"&lt;&gt;",C20:H20),2),"")</f>
         <v/>
       </c>
       <c r="J20" s="42">
@@ -18749,11 +18785,11 @@
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(COUNTIF(C20:H20,2),0,1)</f>
+        <f>IF(COUNTIF(C20:H20,2)+ COUNTIF(C20:H20,""),0,1)</f>
         <v/>
       </c>
       <c r="L20" s="43">
-        <f>IF(COUNTIF(C20:H20,2) + COUNTIF(C20:H20,3),0,1)</f>
+        <f>IF(COUNTIF(C20:H20,2) + COUNTIF(C20:H20,3)+ COUNTIF(C20:H20,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18769,31 +18805,31 @@
         </is>
       </c>
       <c r="C21" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D21" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E21" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F21" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G21" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H21" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C20:EB20,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I21" s="42">
-        <f>ROUND(AVERAGE(C21:H21),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C21:H21,"&lt;&gt;",C21:H21),2),"")</f>
         <v/>
       </c>
       <c r="J21" s="42">
@@ -18801,11 +18837,11 @@
         <v/>
       </c>
       <c r="K21" s="43">
-        <f>IF(COUNTIF(C21:H21,2),0,1)</f>
+        <f>IF(COUNTIF(C21:H21,2)+ COUNTIF(C21:H21,""),0,1)</f>
         <v/>
       </c>
       <c r="L21" s="43">
-        <f>IF(COUNTIF(C21:H21,2) + COUNTIF(C21:H21,3),0,1)</f>
+        <f>IF(COUNTIF(C21:H21,2) + COUNTIF(C21:H21,3)+ COUNTIF(C21:H21,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18821,31 +18857,31 @@
         </is>
       </c>
       <c r="C22" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!C4),0),"")</f>
         <v/>
       </c>
       <c r="D22" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!D4),0),"")</f>
         <v/>
       </c>
       <c r="E22" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!E4),0),"")</f>
         <v/>
       </c>
       <c r="F22" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!F4),0),"")</f>
         <v/>
       </c>
       <c r="G22" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!G4),0),"")</f>
         <v/>
       </c>
       <c r="H22" s="15">
-        <f>ROUND(IFERROR(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),2),0)</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('П1-18 (БН)'!C21:EB21,'П1-18 (БН)'!C22:EB22,'Ведомость усп. и посещ.'!H4),0),"")</f>
         <v/>
       </c>
       <c r="I22" s="42">
-        <f>ROUND(AVERAGE(C22:H22),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(C22:H22,"&lt;&gt;",C22:H22),2),"")</f>
         <v/>
       </c>
       <c r="J22" s="42">
@@ -18853,11 +18889,11 @@
         <v/>
       </c>
       <c r="K22" s="43">
-        <f>IF(COUNTIF(C22:H22,2),0,1)</f>
+        <f>IF(COUNTIF(C22:H22,2)+ COUNTIF(C22:H22,""),0,1)</f>
         <v/>
       </c>
       <c r="L22" s="43">
-        <f>IF(COUNTIF(C22:H22,2) + COUNTIF(C22:H22,3),0,1)</f>
+        <f>IF(COUNTIF(C22:H22,2) + COUNTIF(C22:H22,3)+ COUNTIF(C22:H22,""),0,1)</f>
         <v/>
       </c>
     </row>
@@ -18875,7 +18911,7 @@
       <c r="G23" s="45" t="n"/>
       <c r="H23" s="45" t="n"/>
       <c r="I23" s="46">
-        <f>ROUND(AVERAGE(I5:I22),2)</f>
+        <f>IFERROR(ROUND(AVERAGEIF(I4:I22,"&lt;&gt;",I4:I22),2), "")</f>
         <v/>
       </c>
       <c r="J23" s="46">
@@ -18901,7 +18937,7 @@
       <c r="C25" s="31" t="n"/>
       <c r="D25" s="31" t="n"/>
       <c r="E25" s="48">
-        <f>(A21-K23)/A21</f>
+        <f>K23/A22</f>
         <v/>
       </c>
     </row>
@@ -18915,7 +18951,7 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="31" t="n"/>
       <c r="E27" s="48">
-        <f>L23/A21</f>
+        <f>L23/A22</f>
         <v/>
       </c>
     </row>
@@ -18929,7 +18965,7 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="31" t="n"/>
       <c r="E29" s="49">
-        <f>J23/A21</f>
+        <f>J23/A22</f>
         <v/>
       </c>
     </row>
